--- a/Project/GreyGym DB/Db Table.xlsx
+++ b/Project/GreyGym DB/Db Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USERAS\Documents\GreyGym dbXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\7th Semester  (Fall 25-26)\OOP 2 (C#)\oop2-fall-2025-26\Project\GreyGym DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9A05E-CE9C-4421-83F5-0A61470DDB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD650E94-6DC2-4B08-B7EA-DF501689C868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="525" windowWidth="29040" windowHeight="15795" xr2:uid="{A07023F0-C996-4FBB-9B05-D334F5B7BCED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A07023F0-C996-4FBB-9B05-D334F5B7BCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -65,40 +65,22 @@
     <t>Tanzim</t>
   </si>
   <si>
-    <t>Tanzim@gmail.com</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Sady</t>
-  </si>
-  <si>
-    <t>sady@gmail.com</t>
-  </si>
-  <si>
     <t>Trainer</t>
   </si>
   <si>
     <t>Omi</t>
   </si>
   <si>
-    <t>Omi@gmail.com</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Office Clerk</t>
-  </si>
-  <si>
-    <t>Faria</t>
-  </si>
-  <si>
-    <t>Faria@gmail.com</t>
   </si>
   <si>
     <t>Customer</t>
@@ -503,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -529,7 +511,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D280C1-9FCD-4B72-A551-F31E2DF17D7A}">
-  <dimension ref="C2:V39"/>
+  <dimension ref="C2:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +879,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
       <c r="K2" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="2"/>
@@ -929,42 +910,36 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12345</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H4" s="1">
         <v>1101010101</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -979,33 +954,27 @@
         <v>1000</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1">
-        <v>21321312</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1">
         <v>1200321901</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
@@ -1020,33 +989,27 @@
         <v>1500</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>312312</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1">
         <v>213213123</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
@@ -1061,33 +1024,27 @@
         <v>2000</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
-        <v>321312</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1">
         <v>23131313</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
@@ -1102,20 +1059,20 @@
         <v>300</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="I10" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
@@ -1125,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="P11" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
@@ -1166,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
@@ -1175,7 +1132,7 @@
         <v>300</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1193,10 +1150,10 @@
         <v>70</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="P12" s="13">
         <v>46023</v>
@@ -1207,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -1216,7 +1173,7 @@
         <v>1000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -1234,10 +1191,10 @@
         <v>80</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P13" s="16">
         <v>46024</v>
@@ -1248,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1">
         <v>6</v>
@@ -1257,7 +1214,7 @@
         <v>1500</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
@@ -1275,10 +1232,10 @@
         <v>70</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P14" s="16">
         <v>46082</v>
@@ -1286,7 +1243,7 @@
     </row>
     <row r="17" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -1295,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="2"/>
@@ -1311,34 +1268,34 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
@@ -1346,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -1382,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -1397,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -1424,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L22" s="8">
         <v>2</v>
@@ -1451,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
@@ -1469,12 +1426,12 @@
     </row>
     <row r="27" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
       <c r="L27" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="2"/>
@@ -1484,37 +1441,37 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.25">
@@ -1534,16 +1491,16 @@
         <v>46025</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O29" s="1">
         <v>10</v>
@@ -1552,7 +1509,7 @@
         <v>46023</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.25">
@@ -1572,16 +1529,16 @@
         <v>46058</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L30" s="1">
         <v>2</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -1590,7 +1547,7 @@
         <v>46056</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.25">
@@ -1610,16 +1567,16 @@
         <v>46087</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1">
         <v>3</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O31" s="1">
         <v>2</v>
@@ -1628,54 +1585,51 @@
         <v>46085</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="2"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36" s="12">
         <v>46023</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>2</v>
       </c>
@@ -1686,33 +1640,28 @@
         <v>46086</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E38" s="12">
         <v>46084</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="17"/>
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/GreyGym DB/Db Table.xlsx
+++ b/Project/GreyGym DB/Db Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\7th Semester  (Fall 25-26)\OOP 2 (C#)\oop2-fall-2025-26\Project\GreyGym DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD650E94-6DC2-4B08-B7EA-DF501689C868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9489452-9A4A-4B03-8134-A9838DC3781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A07023F0-C996-4FBB-9B05-D334F5B7BCED}"/>
   </bookViews>
@@ -848,7 +848,7 @@
   <dimension ref="C2:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
